--- a/resultData/Носки.xlsx
+++ b/resultData/Носки.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clouds\Dropbox\programming\UTM\resultData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89060A6F-A0D3-4EAD-A9BC-E3B6671A0340}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Носки" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Носки" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
   <si>
     <t>Встречаемость</t>
   </si>
@@ -305,20 +310,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -334,15 +338,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -630,122 +643,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s"/>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="n">
-        <v>54.96412689000889</v>
-      </c>
-      <c r="G1" t="n">
-        <v>28.77001862197393</v>
-      </c>
-      <c r="H1" t="n">
-        <v>72.10968494749125</v>
-      </c>
-      <c r="I1" t="n">
+      <c r="F1">
+        <v>54.964126890008892</v>
+      </c>
+      <c r="G1">
+        <v>28.770018621973929</v>
+      </c>
+      <c r="H1">
+        <v>72.109684947491246</v>
+      </c>
+      <c r="I1">
         <v>13.87264292128105</v>
       </c>
-      <c r="J1" t="n">
-        <v>19.66627771295216</v>
-      </c>
-      <c r="K1" t="n">
+      <c r="J1">
+        <v>19.666277712952159</v>
+      </c>
+      <c r="K1">
         <v>1993.483870967742</v>
       </c>
-      <c r="L1" t="n">
-        <v>42.28877737226277</v>
-      </c>
-      <c r="M1" t="n">
-        <v>22.67261831967714</v>
-      </c>
-      <c r="N1" t="n">
-        <v>31.34302620456467</v>
-      </c>
-      <c r="O1" t="n">
-        <v>75.39406262708418</v>
-      </c>
-      <c r="P1" t="n">
+      <c r="L1">
+        <v>42.288777372262771</v>
+      </c>
+      <c r="M1">
+        <v>22.672618319677142</v>
+      </c>
+      <c r="N1">
+        <v>31.343026204564669</v>
+      </c>
+      <c r="O1">
+        <v>75.394062627084182</v>
+      </c>
+      <c r="P1">
         <v>26.67155804920155</v>
       </c>
-      <c r="Q1" t="n">
-        <v>20.49911543564794</v>
-      </c>
-      <c r="R1" t="n">
-        <v>30.18463041354608</v>
-      </c>
-      <c r="S1" t="n">
+      <c r="Q1">
+        <v>20.499115435647941</v>
+      </c>
+      <c r="R1">
+        <v>30.184630413546081</v>
+      </c>
+      <c r="S1">
         <v>168.6933575978162</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s"/>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1328.989247311828</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1328.989247311828</v>
       </c>
-      <c r="H2" t="n">
-        <v>797.3935483870969</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664.494623655914</v>
-      </c>
-      <c r="J2" t="n">
-        <v>996.741935483871</v>
-      </c>
-      <c r="K2" t="n">
-        <v>797.3935483870969</v>
-      </c>
-      <c r="L2" t="n">
-        <v>797.3935483870969</v>
-      </c>
-      <c r="M2" t="n">
-        <v>996.741935483871</v>
-      </c>
-      <c r="N2" t="n">
-        <v>234.5275142314991</v>
-      </c>
-      <c r="O2" t="n">
-        <v>569.5668202764977</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="H2">
+        <v>797.39354838709687</v>
+      </c>
+      <c r="I2">
+        <v>664.49462365591398</v>
+      </c>
+      <c r="J2">
+        <v>996.74193548387098</v>
+      </c>
+      <c r="K2">
+        <v>797.39354838709687</v>
+      </c>
+      <c r="L2">
+        <v>797.39354838709687</v>
+      </c>
+      <c r="M2">
+        <v>996.74193548387098</v>
+      </c>
+      <c r="N2">
+        <v>234.52751423149911</v>
+      </c>
+      <c r="O2">
+        <v>569.56682027649765</v>
+      </c>
+      <c r="P2">
         <v>1993.483870967742</v>
       </c>
-      <c r="Q2" t="n">
-        <v>996.741935483871</v>
-      </c>
-      <c r="R2" t="n">
-        <v>664.494623655914</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="Q2">
+        <v>996.74193548387098</v>
+      </c>
+      <c r="R2">
+        <v>664.49462365591398</v>
+      </c>
+      <c r="S2">
         <v>1993.483870967742</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -804,9 +805,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="n">
-        <v>18170.30522331027</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>18170.305223310272</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -820,12 +821,9 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s"/>
       <c r="J4" t="s">
         <v>26</v>
       </c>
@@ -841,16 +839,12 @@
       <c r="N4" t="s">
         <v>30</v>
       </c>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>31</v>
       </c>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>17036.43680888748</v>
       </c>
       <c r="B5" t="s">
@@ -865,33 +859,24 @@
       <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
       <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
       <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s"/>
       <c r="N5" t="s">
         <v>36</v>
       </c>
       <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
       <c r="S5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="n">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>15673.29519179395</v>
       </c>
       <c r="B6" t="s">
@@ -906,11 +891,9 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s"/>
       <c r="I6" t="s">
         <v>42</v>
       </c>
@@ -920,7 +903,6 @@
       <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" t="s"/>
       <c r="M6" t="s">
         <v>44</v>
       </c>
@@ -930,16 +912,13 @@
       <c r="O6" t="s">
         <v>46</v>
       </c>
-      <c r="P6" t="s"/>
       <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="n">
-        <v>14964.30708396444</v>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>14964.307083964441</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -953,11 +932,9 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s"/>
       <c r="I7" t="s">
         <v>49</v>
       </c>
@@ -967,7 +944,6 @@
       <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="s"/>
       <c r="M7" t="s">
         <v>44</v>
       </c>
@@ -977,15 +953,12 @@
       <c r="O7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" t="s"/>
       <c r="Q7" t="s">
         <v>31</v>
       </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="n">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>13276.45486626453</v>
       </c>
       <c r="B8" t="s">
@@ -1000,31 +973,21 @@
       <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
       <c r="L8" t="s">
         <v>52</v>
       </c>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>53</v>
       </c>
       <c r="O8" t="s">
         <v>54</v>
       </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
       <c r="R8" t="s">
         <v>55</v>
       </c>
-      <c r="S8" t="s"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="n">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>10891.60069280218</v>
       </c>
       <c r="B9" t="s">
@@ -1042,26 +1005,15 @@
       <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
       <c r="N9" t="s">
         <v>60</v>
       </c>
       <c r="O9" t="s">
         <v>61</v>
       </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="n">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>10436.64239921783</v>
       </c>
       <c r="B10" t="s">
@@ -1076,30 +1028,19 @@
       <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
       <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="J10" t="s"/>
       <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
       <c r="N10" t="s">
         <v>65</v>
       </c>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="n">
-        <v>9803.058595917229</v>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9803.0585959172295</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -1113,30 +1054,19 @@
       <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
       <c r="L11" t="s">
         <v>52</v>
       </c>
-      <c r="M11" t="s"/>
       <c r="N11" t="s">
         <v>68</v>
       </c>
       <c r="O11" t="s">
         <v>69</v>
       </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="n">
-        <v>6120.979869732421</v>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6120.9798697324213</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -1150,30 +1080,19 @@
       <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
       <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
       <c r="N12" t="s">
         <v>73</v>
       </c>
-      <c r="O12" t="s"/>
       <c r="P12" t="s">
         <v>74</v>
       </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="n">
-        <v>5344.79979795029</v>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5344.7997979502898</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -1187,30 +1106,19 @@
       <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
         <v>77</v>
       </c>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
       <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
       <c r="R13" t="s">
         <v>78</v>
       </c>
-      <c r="S13" t="s"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="n">
-        <v>5344.79979795029</v>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5344.7997979502898</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
@@ -1224,30 +1132,19 @@
       <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s"/>
-      <c r="J14" t="s"/>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="s"/>
       <c r="N14" t="s">
         <v>73</v>
       </c>
-      <c r="O14" t="s"/>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
       <c r="R14" t="s">
         <v>78</v>
       </c>
-      <c r="S14" t="s"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="n">
-        <v>5344.79979795029</v>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5344.7997979502898</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -1261,29 +1158,18 @@
       <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s"/>
       <c r="H15" t="s">
         <v>84</v>
       </c>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
-      <c r="M15" t="s"/>
       <c r="N15" t="s">
         <v>73</v>
       </c>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
       <c r="R15" t="s">
         <v>78</v>
       </c>
-      <c r="S15" t="s"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="n">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>4185.88296406268</v>
       </c>
       <c r="B16" t="s">
@@ -1301,25 +1187,13 @@
       <c r="F16" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s"/>
-      <c r="J16" t="s"/>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
-      <c r="M16" t="s"/>
       <c r="N16" t="s">
         <v>30</v>
       </c>
-      <c r="O16" t="s"/>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" t="n">
-        <v>4182.384378176804</v>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4182.3843781768037</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
@@ -1333,28 +1207,16 @@
       <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s"/>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
-      <c r="M17" t="s"/>
       <c r="N17" t="s">
         <v>73</v>
       </c>
-      <c r="O17" t="s"/>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
       <c r="R17" t="s">
         <v>90</v>
       </c>
-      <c r="S17" t="s"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" t="n">
-        <v>2126.96432348851</v>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2126.9643234885102</v>
       </c>
       <c r="B18" t="s">
         <v>91</v>
@@ -1368,26 +1230,13 @@
       <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s"/>
-      <c r="J18" t="s"/>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
-      <c r="M18" t="s"/>
       <c r="N18" t="s">
         <v>45</v>
       </c>
-      <c r="O18" t="s"/>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="n">
-        <v>708.9881078295032</v>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>708.98810782950318</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -1401,24 +1250,23 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s"/>
-      <c r="J19" t="s"/>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
-      <c r="M19" t="s"/>
       <c r="N19" t="s">
         <v>73</v>
       </c>
-      <c r="O19" t="s"/>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resultData/Носки.xlsx
+++ b/resultData/Носки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clouds\Dropbox\programming\UTM\resultData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89060A6F-A0D3-4EAD-A9BC-E3B6671A0340}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B8A86-DF1E-439D-B459-9EFC86B48FB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,6 +85,30 @@
     <t>Количество в упаковке</t>
   </si>
   <si>
+    <t>144581</t>
+  </si>
+  <si>
+    <t>Носки спортивные Forward трикотаж, 85% хлопок , 12% ПЭ, 3% эластан черный/белый/серый 3 пары</t>
+  </si>
+  <si>
+    <t>14.31.10</t>
+  </si>
+  <si>
+    <t>спортивные</t>
+  </si>
+  <si>
+    <t>черный/белый/серый</t>
+  </si>
+  <si>
+    <t>трикотаж, 85% хлопок , 12% ПЭ, 3% эластан</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>3 пары</t>
+  </si>
+  <si>
     <t>933141</t>
   </si>
   <si>
@@ -94,9 +118,6 @@
     <t>Носки</t>
   </si>
   <si>
-    <t>14.31.10</t>
-  </si>
-  <si>
     <t>р.40</t>
   </si>
   <si>
@@ -118,27 +139,6 @@
     <t>Россия</t>
   </si>
   <si>
-    <t>144581</t>
-  </si>
-  <si>
-    <t>Носки спортивные Forward трикотаж, 85% хлопок , 12% ПЭ, 3% эластан черный/белый/серый 3 пары</t>
-  </si>
-  <si>
-    <t>спортивные</t>
-  </si>
-  <si>
-    <t>черный/белый/серый</t>
-  </si>
-  <si>
-    <t>трикотаж, 85% хлопок , 12% ПЭ, 3% эластан</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>3 пары</t>
-  </si>
-  <si>
     <t>943460</t>
   </si>
   <si>
@@ -208,6 +208,18 @@
     <t xml:space="preserve">Butterfly </t>
   </si>
   <si>
+    <t>115169</t>
+  </si>
+  <si>
+    <t>Носки Asics 98% полиамид, 2% эластан белые</t>
+  </si>
+  <si>
+    <t>98% полиамид, 2% эластан</t>
+  </si>
+  <si>
+    <t>Asics</t>
+  </si>
+  <si>
     <t>54124</t>
   </si>
   <si>
@@ -220,18 +232,6 @@
     <t>натуральная овчина</t>
   </si>
   <si>
-    <t>115169</t>
-  </si>
-  <si>
-    <t>Носки Asics 98% полиамид, 2% эластан белые</t>
-  </si>
-  <si>
-    <t>98% полиамид, 2% эластан</t>
-  </si>
-  <si>
-    <t>Asics</t>
-  </si>
-  <si>
     <t>967697</t>
   </si>
   <si>
@@ -277,6 +277,15 @@
     <t>р.29</t>
   </si>
   <si>
+    <t>663426</t>
+  </si>
+  <si>
+    <t>Носки шерсть 170968</t>
+  </si>
+  <si>
+    <t>170968</t>
+  </si>
+  <si>
     <t>663133</t>
   </si>
   <si>
@@ -284,15 +293,6 @@
   </si>
   <si>
     <t>М -01</t>
-  </si>
-  <si>
-    <t>663426</t>
-  </si>
-  <si>
-    <t>Носки шерсть 170968</t>
-  </si>
-  <si>
-    <t>170968</t>
   </si>
   <si>
     <t>4014</t>
@@ -647,7 +647,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18170.305223310272</v>
+        <v>15676.42333165164</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -816,68 +816,68 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" t="s">
+      <c r="S4" t="s">
         <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17036.43680888748</v>
+        <v>15405.203259841701</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
       <c r="L5" t="s">
         <v>35</v>
       </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
       <c r="N5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="S5" t="s">
+      <c r="Q5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15673.29519179395</v>
+        <v>13021.626157734419</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -886,10 +886,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -901,7 +901,7 @@
         <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -913,12 +913,12 @@
         <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>14964.307083964441</v>
+        <v>12396.13437305337</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -927,10 +927,10 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -942,24 +942,24 @@
         <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O7" t="s">
         <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13276.45486626453</v>
+        <v>12087.90436775018</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -971,7 +971,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
         <v>52</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10891.60069280218</v>
+        <v>9828.4460936020405</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -1000,7 +1000,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10436.64239921783</v>
+        <v>8765.265602254407</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -1026,21 +1026,21 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" t="s">
         <v>64</v>
       </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9803.0585959172295</v>
+        <v>7873.1782979759464</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -1052,21 +1052,21 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6120.9798697324213</v>
+        <v>5941.8466886397346</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -1075,10 +1075,10 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
         <v>72</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5344.7997979502898</v>
+        <v>4922.6677044455382</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -1104,7 +1104,7 @@
         <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>77</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5344.7997979502898</v>
+        <v>4922.6677044455382</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
@@ -1130,7 +1130,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5344.7997979502898</v>
+        <v>4922.6677044455382</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -1156,7 +1156,7 @@
         <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
         <v>84</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4185.88296406268</v>
+        <v>3948.1305501768202</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -1182,18 +1182,18 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" t="s">
         <v>87</v>
       </c>
-      <c r="N16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4182.3843781768037</v>
+        <v>3908.99845135536</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
@@ -1205,18 +1205,18 @@
         <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
       </c>
       <c r="N17" t="s">
-        <v>73</v>
-      </c>
-      <c r="R17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2126.9643234885102</v>
+        <v>1876.4753540431529</v>
       </c>
       <c r="B18" t="s">
         <v>91</v>
@@ -1228,15 +1228,15 @@
         <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>708.98810782950318</v>
+        <v>625.49178468105094</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -1248,14 +1248,14 @@
         <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD2">
+  <conditionalFormatting sqref="F1:S2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/resultData/Носки.xlsx
+++ b/resultData/Носки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clouds\Dropbox\programming\UTM\resultData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B8A86-DF1E-439D-B459-9EFC86B48FB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89060A6F-A0D3-4EAD-A9BC-E3B6671A0340}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,15 +85,45 @@
     <t>Количество в упаковке</t>
   </si>
   <si>
+    <t>933141</t>
+  </si>
+  <si>
+    <t>Носки мужские х/б черные р.40 ФКУ ИК-1 ГУФСИН РОССИИ ПО ЧЕЛЯБИНСКОЙ ОБЛАСТИ Россия</t>
+  </si>
+  <si>
+    <t>Носки</t>
+  </si>
+  <si>
+    <t>14.31.10</t>
+  </si>
+  <si>
+    <t>р.40</t>
+  </si>
+  <si>
+    <t>ФКУ ИК-1 ГУФСИН РОССИИ ПО ЧЕЛЯБИНСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>мужские</t>
+  </si>
+  <si>
+    <t>черные</t>
+  </si>
+  <si>
+    <t>1,0274007795e+12</t>
+  </si>
+  <si>
+    <t>хлопчатобумажные</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
     <t>144581</t>
   </si>
   <si>
     <t>Носки спортивные Forward трикотаж, 85% хлопок , 12% ПЭ, 3% эластан черный/белый/серый 3 пары</t>
   </si>
   <si>
-    <t>14.31.10</t>
-  </si>
-  <si>
     <t>спортивные</t>
   </si>
   <si>
@@ -109,36 +139,6 @@
     <t>3 пары</t>
   </si>
   <si>
-    <t>933141</t>
-  </si>
-  <si>
-    <t>Носки мужские х/б черные р.40 ФКУ ИК-1 ГУФСИН РОССИИ ПО ЧЕЛЯБИНСКОЙ ОБЛАСТИ Россия</t>
-  </si>
-  <si>
-    <t>Носки</t>
-  </si>
-  <si>
-    <t>р.40</t>
-  </si>
-  <si>
-    <t>ФКУ ИК-1 ГУФСИН РОССИИ ПО ЧЕЛЯБИНСКОЙ ОБЛАСТИ</t>
-  </si>
-  <si>
-    <t>мужские</t>
-  </si>
-  <si>
-    <t>черные</t>
-  </si>
-  <si>
-    <t>1,0274007795e+12</t>
-  </si>
-  <si>
-    <t>хлопчатобумажные</t>
-  </si>
-  <si>
-    <t>Россия</t>
-  </si>
-  <si>
     <t>943460</t>
   </si>
   <si>
@@ -208,6 +208,18 @@
     <t xml:space="preserve">Butterfly </t>
   </si>
   <si>
+    <t>54124</t>
+  </si>
+  <si>
+    <t>Носки нагольные для особого пояса ТИС натуральная овчина мужские</t>
+  </si>
+  <si>
+    <t>нагольные для особого пояса ТИС</t>
+  </si>
+  <si>
+    <t>натуральная овчина</t>
+  </si>
+  <si>
     <t>115169</t>
   </si>
   <si>
@@ -220,18 +232,6 @@
     <t>Asics</t>
   </si>
   <si>
-    <t>54124</t>
-  </si>
-  <si>
-    <t>Носки нагольные для особого пояса ТИС натуральная овчина мужские</t>
-  </si>
-  <si>
-    <t>нагольные для особого пояса ТИС</t>
-  </si>
-  <si>
-    <t>натуральная овчина</t>
-  </si>
-  <si>
     <t>967697</t>
   </si>
   <si>
@@ -277,6 +277,15 @@
     <t>р.29</t>
   </si>
   <si>
+    <t>663133</t>
+  </si>
+  <si>
+    <t>Носки М -01 хлопок</t>
+  </si>
+  <si>
+    <t>М -01</t>
+  </si>
+  <si>
     <t>663426</t>
   </si>
   <si>
@@ -284,15 +293,6 @@
   </si>
   <si>
     <t>170968</t>
-  </si>
-  <si>
-    <t>663133</t>
-  </si>
-  <si>
-    <t>Носки М -01 хлопок</t>
-  </si>
-  <si>
-    <t>М -01</t>
   </si>
   <si>
     <t>4014</t>
@@ -647,7 +647,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +807,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15676.42333165164</v>
+        <v>18170.305223310272</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -816,68 +816,68 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15405.203259841701</v>
+        <v>17036.43680888748</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>34</v>
       </c>
       <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>13021.626157734419</v>
+        <v>15673.29519179395</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
@@ -886,10 +886,10 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
@@ -901,7 +901,7 @@
         <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
         <v>44</v>
@@ -913,12 +913,12 @@
         <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12396.13437305337</v>
+        <v>14964.307083964441</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
@@ -927,10 +927,10 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -942,24 +942,24 @@
         <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
         <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
         <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12087.90436775018</v>
+        <v>13276.45486626453</v>
       </c>
       <c r="B8" t="s">
         <v>50</v>
@@ -971,7 +971,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
         <v>52</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9828.4460936020405</v>
+        <v>10891.60069280218</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -1000,7 +1000,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>59</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8765.265602254407</v>
+        <v>10436.64239921783</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -1026,21 +1026,21 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7873.1782979759464</v>
+        <v>9803.0585959172295</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -1052,21 +1052,21 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" t="s">
         <v>68</v>
       </c>
-      <c r="K11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5941.8466886397346</v>
+        <v>6120.9798697324213</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -1075,10 +1075,10 @@
         <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>72</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4922.6677044455382</v>
+        <v>5344.7997979502898</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -1104,7 +1104,7 @@
         <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>77</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4922.6677044455382</v>
+        <v>5344.7997979502898</v>
       </c>
       <c r="B14" t="s">
         <v>79</v>
@@ -1130,7 +1130,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>81</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4922.6677044455382</v>
+        <v>5344.7997979502898</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -1156,7 +1156,7 @@
         <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
         <v>84</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3948.1305501768202</v>
+        <v>4185.88296406268</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -1182,18 +1182,18 @@
         <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3908.99845135536</v>
+        <v>4182.3843781768037</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
@@ -1205,18 +1205,18 @@
         <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" t="s">
         <v>90</v>
       </c>
-      <c r="N17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1876.4753540431529</v>
+        <v>2126.9643234885102</v>
       </c>
       <c r="B18" t="s">
         <v>91</v>
@@ -1228,15 +1228,15 @@
         <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>625.49178468105094</v>
+        <v>708.98810782950318</v>
       </c>
       <c r="B19" t="s">
         <v>93</v>
@@ -1248,14 +1248,14 @@
         <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N19" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:S2">
+  <conditionalFormatting sqref="A1:XFD2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
